--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0183 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0183 - Sales Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC09B454-F572-4250-A94B-7C10172711D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90FC4A9-5FD4-464A-9E70-5A13D1298961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2700" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0183" sheetId="2" r:id="rId1"/>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -196,6 +196,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -525,8 +528,7 @@
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="15" max="16" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
@@ -535,55 +537,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -591,10 +593,10 @@
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
